--- a/20250420report_table1.xlsx
+++ b/20250420report_table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/hydroProjects/SWE/Sierras/paperwork/0_UCSB_DWR_Project/2025_RT_Reports/20250420_RT_Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25AD798-114B-5C4F-9414-A47EACDD59D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2B0D07-3635-654E-B109-6FFC9F880EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="820" windowWidth="26040" windowHeight="25480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22780" yWindow="1540" windowWidth="26040" windowHeight="25480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>Kern§</t>
   </si>
   <si>
-    <t>Yuba</t>
-  </si>
-  <si>
     <t>Merced</t>
   </si>
   <si>
@@ -153,21 +150,12 @@
     <t>20.8 ( 7 )</t>
   </si>
   <si>
-    <t>Kings</t>
-  </si>
-  <si>
-    <t>Kaweah</t>
-  </si>
-  <si>
     <t>4/13/25</t>
   </si>
   <si>
     <t>% 4/13 Avg.</t>
   </si>
   <si>
-    <t>American</t>
-  </si>
-  <si>
     <t>Tuolumne</t>
   </si>
   <si>
@@ -391,6 +379,18 @@
   </si>
   <si>
     <t>8.1 ( 5 )</t>
+  </si>
+  <si>
+    <t>Yuba§</t>
+  </si>
+  <si>
+    <t>American§</t>
+  </si>
+  <si>
+    <t>Kings§</t>
+  </si>
+  <si>
+    <t>Kaweah§</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1582,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1601,43 +1601,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>18</v>
@@ -1684,16 +1684,16 @@
         <v>77.7</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H3" s="42">
         <v>321.39999999999998</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K3" s="9">
         <v>31.4</v>
@@ -1719,16 +1719,16 @@
         <v>70.900000000000006</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H4" s="42">
         <v>115.2</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K4" s="9">
         <v>29.1</v>
@@ -1754,16 +1754,16 @@
         <v>79.3</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H5" s="42">
         <v>164.9</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K5" s="9">
         <v>39.5</v>
@@ -1789,16 +1789,16 @@
         <v>18.5</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H6" s="42">
         <v>2065.9</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K6" s="9">
         <v>5.2</v>
@@ -1824,7 +1824,7 @@
         <v>26.7</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H7" s="37">
         <v>239.8</v>
@@ -1859,16 +1859,16 @@
         <v>24.9</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H8" s="8">
         <v>2087.6999999999998</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K8" s="9">
         <v>9.3000000000000007</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="9" spans="1:15" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="B9" s="12">
         <v>106</v>
@@ -1895,16 +1895,16 @@
         <v>58.2</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H9" s="8">
         <v>516.4</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K9" s="9">
         <v>24.5</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="10" spans="1:15" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B10" s="12">
         <v>87</v>
@@ -1931,16 +1931,16 @@
         <v>48.7</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H10" s="8">
         <v>795.3</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K10" s="9">
         <v>14.6</v>
@@ -1967,7 +1967,7 @@
         <v>14.1</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H11" s="16">
         <v>91.9</v>
@@ -2003,16 +2003,16 @@
         <v>52</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H12" s="8">
         <v>315.10000000000002</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K12" s="9">
         <v>15.9</v>
@@ -2039,16 +2039,16 @@
         <v>51.3</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H13" s="8">
         <v>557.4</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K13" s="9">
         <v>14.5</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="14" spans="1:15" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" s="12">
         <v>87</v>
@@ -2076,16 +2076,16 @@
         <v>57</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="8">
         <v>910.3</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K14" s="9">
         <v>18.399999999999999</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="15" spans="1:15" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="14">
         <v>86</v>
@@ -2112,16 +2112,16 @@
         <v>53.3</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H15" s="16">
         <v>538.79999999999995</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="17">
         <v>15.5</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="16" spans="1:15" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="12">
         <v>80</v>
@@ -2148,16 +2148,16 @@
         <v>53</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H16" s="8">
         <v>1208.5</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K16" s="9">
         <v>11.4</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="17" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="B17" s="12">
         <v>81</v>
@@ -2184,16 +2184,16 @@
         <v>57.4</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H17" s="8">
         <v>1207.3</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K17" s="9">
         <v>12.3</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="18" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="B18" s="12">
         <v>79</v>
@@ -2220,16 +2220,16 @@
         <v>43.9</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H18" s="8">
         <v>314.10000000000002</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K18" s="9">
         <v>9.9</v>
@@ -2256,16 +2256,16 @@
         <v>18.5</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H19" s="8">
         <v>137.6</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K19" s="9">
         <v>1.1000000000000001</v>
@@ -2292,16 +2292,16 @@
         <v>21.8</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H20" s="16">
         <v>1682.1</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K20" s="17">
         <v>3.6</v>
@@ -2328,16 +2328,16 @@
         <v>38.9</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H21" s="8">
         <v>412</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K21" s="9">
         <v>11.9</v>
@@ -2364,16 +2364,16 @@
         <v>48.5</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H22" s="8">
         <v>306</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K22" s="9">
         <v>11.1</v>
@@ -2401,16 +2401,16 @@
         <v>60.6</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H23" s="8">
         <v>65</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K23" s="9">
         <v>13</v>
@@ -2437,16 +2437,16 @@
         <v>35.299999999999997</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H24" s="16">
         <v>354.3</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K24" s="17">
         <v>8.8000000000000007</v>
@@ -2473,16 +2473,16 @@
         <v>60.7</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H25" s="8">
         <v>179.6</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J25" s="39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K25" s="9">
         <v>18.899999999999999</v>
@@ -2509,16 +2509,16 @@
         <v>25.8</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H26" s="8">
         <v>351</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J26" s="39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K26" s="9">
         <v>6.1</v>
@@ -2545,7 +2545,7 @@
         <v>11.3</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H27" s="8">
         <v>1004.4</v>
@@ -2581,16 +2581,16 @@
         <v>24.7</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H28" s="8">
         <v>374.5</v>
       </c>
       <c r="I28" s="41" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K28" s="9">
         <v>3.1</v>
@@ -2617,16 +2617,16 @@
         <v>14.5</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H29" s="21">
         <v>1772</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K29" s="22">
         <v>1.4</v>
